--- a/April'21/20.04.2021/Daily Sales Info.xlsx
+++ b/April'21/20.04.2021/Daily Sales Info.xlsx
@@ -41,7 +41,6 @@
     <sheet name="Total" sheetId="33" r:id="rId32"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -26898,8 +26897,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33356,8 +33355,8 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R38" sqref="R37:R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
